--- a/original/FlightGUIBU/Default.xlsx
+++ b/original/FlightGUIBU/Default.xlsx
@@ -21,7 +21,7 @@
     <sheet name="Search Order By Number" sheetId="12" r:id="rId12"/>
     <sheet name="Select Order" sheetId="13" r:id="rId13"/>
     <sheet name="Search Order Tab" sheetId="14" r:id="rId14"/>
-    <sheet name="Close App" sheetId="15" r:id="rId15"/>
+    <sheet name="Close App- New" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -223,10 +223,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="FFFFFF"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="283845"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -519,13 +519,13 @@
     <col min="2" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1">
-      <c t="s">
+    <row r="1" ht="14.95" customFormat="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row>
-      <c s="2" t="s">
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -547,7 +547,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -566,7 +566,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -585,7 +585,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -604,7 +604,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -623,7 +623,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -642,7 +642,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row r="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -661,7 +661,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -680,7 +680,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -699,7 +699,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -718,7 +718,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -737,7 +737,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -756,7 +756,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -775,7 +775,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -794,7 +794,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
